--- a/tables_and_figures/output/anesrake_full_vs_restricted_comparison.xlsx
+++ b/tables_and_figures/output/anesrake_full_vs_restricted_comparison.xlsx
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.59763052456585</v>
+        <v>18.54691586254667</v>
       </c>
       <c r="C4" t="n">
-        <v>11.93973333493228</v>
+        <v>11.97649572186662</v>
       </c>
     </row>
   </sheetData>
